--- a/docs/appt-output.xlsx
+++ b/docs/appt-output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -146,13 +146,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>blah</t>
-  </si>
-  <si>
-    <t>This is the output Appointment profile which is returned inside the Bundle resource as a result of the *Operation$find* operation.</t>
-  </si>
-  <si>
-    <t>blah.</t>
+    <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s)</t>
+  </si>
+  <si>
+    <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -408,9 +405,6 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="proposed"/&gt;</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -460,7 +454,7 @@
     <t>The specific service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://fhir.org/guides/argonaut-scheduling/ValueSet/service</t>
+    <t>http://fhir.org/guides/argonaut-scheduling/ValueSet/visit-type</t>
   </si>
   <si>
     <t>Appointment.specialty</t>
@@ -888,9 +882,6 @@
   </si>
   <si>
     <t>Participation status of the actor.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="needs-action"/&gt;</t>
   </si>
   <si>
     <t>The Participation status of an appointment.</t>
@@ -1095,7 +1086,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="161.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1278,9 +1269,7 @@
       <c r="L2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>40</v>
@@ -1341,24 +1330,24 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
-      <c r="A3" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1369,28 +1358,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1440,13 +1429,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1469,7 +1458,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1480,25 +1469,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1549,13 +1538,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1578,7 +1567,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1589,28 +1578,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1660,13 +1649,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -1689,7 +1678,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1700,7 +1689,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1712,16 +1701,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1747,37 +1736,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1800,18 +1789,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1823,16 +1812,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1882,22 +1871,22 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH7" t="s" s="2">
+      <c r="AI7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -1911,11 +1900,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1934,16 +1923,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1993,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2008,7 +1997,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2022,7 +2011,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2045,13 +2034,13 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2090,17 +2079,17 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2129,10 +2118,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
@@ -2142,11 +2131,11 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2154,13 +2143,13 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2211,7 +2200,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2220,10 +2209,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2240,11 +2229,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2257,22 +2246,22 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2322,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2337,7 +2326,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -2351,7 +2340,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2371,16 +2360,16 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2431,7 +2420,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2446,21 +2435,21 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2468,31 +2457,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="H13" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2500,78 +2489,78 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2582,25 +2571,25 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2627,11 +2616,11 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2649,13 +2638,13 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -2664,7 +2653,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2678,7 +2667,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2692,22 +2681,22 @@
         <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2734,11 +2723,11 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2756,7 +2745,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2771,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2785,7 +2774,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2799,22 +2788,22 @@
         <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2841,11 +2830,11 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2863,7 +2852,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2878,13 +2867,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2892,36 +2881,36 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2948,58 +2937,58 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3019,16 +3008,16 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3055,14 +3044,14 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3079,7 +3068,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3094,7 +3083,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -3103,12 +3092,12 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3131,13 +3120,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3188,7 +3177,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3203,7 +3192,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3217,7 +3206,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3228,7 +3217,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3240,16 +3229,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3299,13 +3288,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3314,21 +3303,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3339,7 +3328,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3351,13 +3340,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3408,13 +3397,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3423,21 +3412,21 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3460,13 +3449,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3517,7 +3506,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3532,13 +3521,13 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3546,7 +3535,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3554,28 +3543,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3626,13 +3615,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3641,21 +3630,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3663,28 +3652,28 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3735,13 +3724,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3750,21 +3739,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3775,7 +3764,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3787,13 +3776,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3844,13 +3833,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3859,7 +3848,7 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -3873,7 +3862,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3896,13 +3885,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3953,7 +3942,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3968,7 +3957,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -3982,7 +3971,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3993,7 +3982,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4005,16 +3994,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4064,13 +4053,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4079,7 +4068,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -4093,7 +4082,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4104,7 +4093,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4116,16 +4105,16 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4175,13 +4164,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4190,21 +4179,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4227,13 +4216,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4284,7 +4273,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4299,7 +4288,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4313,23 +4302,23 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4338,13 +4327,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4395,10 +4384,10 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>42</v>
@@ -4407,24 +4396,24 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4435,7 +4424,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4447,13 +4436,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4504,13 +4493,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4519,7 +4508,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -4533,11 +4522,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4556,16 +4545,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4615,7 +4604,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4630,7 +4619,7 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -4644,11 +4633,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4661,22 +4650,22 @@
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4726,7 +4715,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4741,7 +4730,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -4755,7 +4744,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4775,19 +4764,19 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4813,13 +4802,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4837,7 +4826,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4852,21 +4841,21 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4874,28 +4863,28 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4946,13 +4935,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -4961,21 +4950,21 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4986,25 +4975,25 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5031,49 +5020,49 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5084,7 +5073,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5092,14 +5081,14 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5107,13 +5096,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5122,78 +5111,78 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="R37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="X37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5201,14 +5190,14 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5216,16 +5205,16 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5275,7 +5264,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5290,7 +5279,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -5299,7 +5288,7 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
